--- a/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_en.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_en.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -197,6 +197,11 @@
   <si>
     <t>Note</t>
   </si>
+  <si>
+    <t>Multiple Ticket?
+是-yes
+否-no</t>
+  </si>
 </sst>
 </file>
 
@@ -204,9 +209,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -239,6 +244,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -252,6 +295,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -259,6 +303,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -267,55 +327,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,6 +342,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -334,49 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,25 +409,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,157 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,15 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,39 +629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +659,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,6 +706,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,10 +723,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,133 +735,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1212,7 +1217,7 @@
     <col min="11" max="15" width="16.7166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" spans="1:15">
+    <row r="1" ht="72" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,6 +1262,9 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1267,11 +1275,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9987">
       <formula1>"干电池,纽扣电池,其他电池"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9987">
+      <formula1>"内置,配套"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H9987">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9987">
-      <formula1>"内置,配套"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_en.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="SKU Import Template" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SKU</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>HS CODE</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -135,21 +138,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,58 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -223,63 +235,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,33 +556,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -584,6 +567,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +601,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,148 +625,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1110,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,7 +1122,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1164,15 +1167,15 @@
       </c>
       <c r="O1" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"General Goods,Powder,Liquid,With Battery,Magnetic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Dry Cell,Coin Cell,Other Cell"</formula1>
@@ -1180,6 +1183,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>"Built_in,Accessory,NONE"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_en.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-bas/src/main/resources/template/sku_import_template_en.xlsx
@@ -4,98 +4,110 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
-    <sheet name="SKU Import Template" sheetId="1" r:id="rId1"/>
+    <sheet name="SKU Import Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jacob</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>If you have your own SKU CODE, then you can input it. Or automatically generated by the system.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>IF you have your own package, you can create a package about it. Then input the CODE at here.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Ddeclared value(USD)</t>
-  </si>
-  <si>
-    <t>Declare Commodity Names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Attribute </t>
-  </si>
-  <si>
-    <t>Type of battery</t>
-  </si>
-  <si>
-    <t>Battery pack</t>
-  </si>
-  <si>
-    <t>Own packaging</t>
-  </si>
-  <si>
-    <t>Packaging barcode</t>
-  </si>
-  <si>
-    <t>Packaging requirements</t>
-  </si>
-  <si>
-    <t>Weight (g)</t>
-  </si>
-  <si>
-    <t>Length (cm)</t>
-  </si>
-  <si>
-    <t>Width (cm)</t>
-  </si>
-  <si>
-    <t>Height(cm)</t>
-  </si>
-  <si>
-    <t>Description of Products</t>
-  </si>
-  <si>
-    <t>HS CODE</t>
-  </si>
-  <si>
-    <t>Remarks</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>SKU CODE
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Declared Product Name
+（Required）</t>
+  </si>
+  <si>
+    <t>Confirm Product Name
+（Required）</t>
+  </si>
+  <si>
+    <t>Declared Value(USD)
+（Required）</t>
+  </si>
+  <si>
+    <t>Product Charateristic
+（Required）</t>
+  </si>
+  <si>
+    <t>Battery Type
+（Not required）</t>
+  </si>
+  <si>
+    <t>Battery Packaging
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Is Package On Own
+（Required）</t>
+  </si>
+  <si>
+    <t>Package On Own Code
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Logistics Packaging Requirements
+（Not Required）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Packaging Price Range
+（Not Required）
+</t>
+  </si>
+  <si>
+    <t>Postcode
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Product Description
+（Required）</t>
+  </si>
+  <si>
+    <t>Weigth(g)
+（Required）</t>
+  </si>
+  <si>
+    <t>Length（cm）
+（Required）</t>
+  </si>
+  <si>
+    <t>Width（cm）
+（Required）</t>
+  </si>
+  <si>
+    <t>Heigth（cm）
+（Required）</t>
+  </si>
+  <si>
+    <t>Volume（cm³）
+（Not Required）</t>
+  </si>
+  <si>
+    <t>SKU Code Of Own
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Product Introduction Link
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Material
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Purpose
+（Not Required）</t>
+  </si>
+  <si>
+    <t>Remark
+（Not Required）</t>
   </si>
 </sst>
 </file>
@@ -108,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -117,26 +129,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -287,11 +299,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -302,7 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor rgb="FFB7DEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,16 +516,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,20 +777,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,6 +846,7 @@
   <colors>
     <mruColors>
       <color rgb="00004597"/>
+      <color rgb="00B7DEE8"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1110,85 +1115,126 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="14" width="16.725" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="29.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.275" customWidth="1"/>
+    <col min="6" max="6" width="18.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.6333333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.6333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.725" customWidth="1"/>
+    <col min="10" max="10" width="19.6333333333333" customWidth="1"/>
+    <col min="11" max="11" width="20.6333333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.9083333333333" customWidth="1"/>
+    <col min="13" max="13" width="30.4583333333333" customWidth="1"/>
+    <col min="14" max="17" width="16.7166666666667" customWidth="1"/>
+    <col min="18" max="18" width="20.8166666666667" customWidth="1"/>
+    <col min="19" max="19" width="17.1833333333333" customWidth="1"/>
+    <col min="20" max="20" width="21.8166666666667" customWidth="1"/>
+    <col min="21" max="21" width="17.6333333333333" customWidth="1"/>
+    <col min="22" max="22" width="17.1833333333333" customWidth="1"/>
+    <col min="23" max="23" width="21.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="70" customHeight="1" spans="1:23">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>"General Goods,Powder,Liquid,With Battery,Magnetic"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"General goods,Powder,Liquid,Electrified,Magnetic Band"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Inside,Accessory"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Dry Cell,Coin Cell,Other Cell"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
-      <formula1>"Built_in,Accessory,NONE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"SP001,气泡袋"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>